--- a/Parts List and Cost Analysis.xlsx
+++ b/Parts List and Cost Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6EAF112-5D53-4946-ABFD-F025C41949CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE2DA39-C307-462E-8380-A6C3C5263F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Specs</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Cost of Parts</t>
-  </si>
-  <si>
-    <t>Electronic Control</t>
   </si>
   <si>
     <t>Sub-System</t>
@@ -125,13 +122,7 @@
     <t>Frame/Structure</t>
   </si>
   <si>
-    <t>Part of Assembly</t>
-  </si>
-  <si>
     <t>Assembly #</t>
-  </si>
-  <si>
-    <t>Plumbing</t>
   </si>
   <si>
     <t>Subassembly</t>
@@ -231,6 +222,36 @@
   </si>
   <si>
     <t>Processes Utilized</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07H3CKT12?ref=vse_pfo_vdp</t>
+  </si>
+  <si>
+    <t>Part of Assemblies</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Electric/Control System</t>
+  </si>
+  <si>
+    <t>Electronic control of various components including force application, UI, Safety/Automation Systems</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Components present to aid in or for the expressed purpose of improving safety of the machine. Functions including overcurrent protection and leak protection</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -569,12 +590,12 @@
   <dimension ref="B3:N469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B7" sqref="B7:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
     <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.06640625" customWidth="1"/>
@@ -596,30 +617,30 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.45">
       <c r="G4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>2</v>
@@ -634,19 +655,16 @@
         <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
         <v>9</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
       <c r="C7">
         <v>1</v>
       </c>
@@ -654,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -680,13 +698,10 @@
         <v>8.85</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
       <c r="C8">
         <v>1</v>
       </c>
@@ -694,13 +709,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -721,9 +736,6 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
       <c r="C9">
         <v>1</v>
       </c>
@@ -731,13 +743,13 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <f>25*12</f>
@@ -759,9 +771,6 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
       <c r="C10">
         <v>1</v>
       </c>
@@ -769,10 +778,10 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -793,9 +802,6 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
       <c r="C11">
         <v>1</v>
       </c>
@@ -803,10 +809,10 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -831,13 +837,13 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -862,13 +868,13 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -893,7 +899,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -914,20 +920,20 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -947,24 +953,21 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1165,13 +1168,13 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1372,13 +1375,13 @@
         <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1400,16 +1403,16 @@
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1544,7 +1547,7 @@
         <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -1657,10 +1660,10 @@
         <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -1685,7 +1688,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -1864,10 +1867,10 @@
         <v>49</v>
       </c>
       <c r="F55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s">
         <v>45</v>
-      </c>
-      <c r="G55" t="s">
-        <v>48</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -2002,10 +2005,10 @@
         <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -2030,7 +2033,7 @@
         <v>56</v>
       </c>
       <c r="G62" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -11011,6 +11014,7 @@
     <hyperlink ref="H9" r:id="rId3" xr:uid="{D786C015-A4D9-45A3-BE88-FDF185630D9D}"/>
     <hyperlink ref="H34" r:id="rId4" xr:uid="{C9EAA082-3180-41D5-B56C-5393B831BC4E}"/>
     <hyperlink ref="H25" r:id="rId5" xr:uid="{6C8837F0-D971-4457-A22C-8DC03785D298}"/>
+    <hyperlink ref="H15" r:id="rId6" xr:uid="{DEDABDA1-814C-48B9-8826-76BF579723FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11031,25 +11035,25 @@
   <sheetData>
     <row r="5" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -11059,42 +11063,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60B9E83-2A77-4A74-B8DF-C8EF3210911C}">
-  <dimension ref="D7:E15"/>
+  <dimension ref="C7:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="17.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="129.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -11117,7 +11153,7 @@
   <sheetData>
     <row r="9" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Parts List and Cost Analysis.xlsx
+++ b/Parts List and Cost Analysis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommy\Documents\Repositories\Microgravity-Press-Washing-Machine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE2DA39-C307-462E-8380-A6C3C5263F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60D2309-A3FD-406D-8F3A-994D41E5CE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts &amp; Assembly List" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Required Tools" sheetId="4" r:id="rId2"/>
     <sheet name="Subsystem Description" sheetId="2" r:id="rId3"/>
     <sheet name="Assembly Description" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -590,7 +590,7 @@
   <dimension ref="B3:N469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
